--- a/Daten_jessi.xlsx
+++ b/Daten_jessi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne\Desktop\HS\Master Angewandte Medieninformatik\7. Semester\InfoVis\InfoVis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madlen\Documents\GitHub\InfoVis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9760C-E1F3-4904-9406-28A004074827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFAED8B-E5CE-4892-9D6D-A2612697022A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12210" xr2:uid="{A6EFCA57-CB75-4731-BBF9-442CE5DE3621}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{A6EFCA57-CB75-4731-BBF9-442CE5DE3621}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="29">
   <si>
     <t>Alter</t>
   </si>
@@ -107,10 +108,16 @@
     <t>f%</t>
   </si>
   <si>
-    <t>Fahrzeugverteilung</t>
+    <t>Fahrzeugverteilung (Prozentuale Verteilung der Unfälle pro Jahr und Altersgruppe)</t>
   </si>
   <si>
-    <t xml:space="preserve"> S</t>
+    <t>Vorbereitungstabelle (Fahrzeugverteilung (Prozentuale Verteilung der Unfälle pro Jahr und Altersgruppe))</t>
+  </si>
+  <si>
+    <t>Summe der Beteiligten</t>
+  </si>
+  <si>
+    <t>Summe HV</t>
   </si>
 </sst>
 </file>
@@ -120,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,21 +171,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +202,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -212,11 +217,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -243,19 +263,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -570,28 +586,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB7345C-196E-4CF7-B2DB-4C412B7ACD7F}">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W53" sqref="W53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="16" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="12.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="N2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +669,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -691,39 +707,39 @@
         <v>13</v>
       </c>
       <c r="O4" s="3">
-        <f>SUM(D4:D9)</f>
+        <f t="shared" ref="O4:V4" si="0">SUM(D4:D9)</f>
         <v>8872</v>
       </c>
       <c r="P4" s="3">
-        <f>SUM(E4:E9)</f>
+        <f t="shared" si="0"/>
         <v>9061</v>
       </c>
       <c r="Q4" s="3">
-        <f>SUM(F4:F9)</f>
+        <f t="shared" si="0"/>
         <v>8539</v>
       </c>
       <c r="R4" s="3">
-        <f>SUM(G4:G9)</f>
+        <f t="shared" si="0"/>
         <v>8305</v>
       </c>
       <c r="S4" s="3">
-        <f>SUM(H4:H9)</f>
+        <f t="shared" si="0"/>
         <v>8915</v>
       </c>
       <c r="T4" s="3">
-        <f>SUM(I4:I9)</f>
+        <f t="shared" si="0"/>
         <v>9283</v>
       </c>
       <c r="U4" s="3">
-        <f>SUM(J4:J9)</f>
+        <f t="shared" si="0"/>
         <v>10005</v>
       </c>
       <c r="V4" s="3">
-        <f>SUM(K4:K9)</f>
+        <f t="shared" si="0"/>
         <v>10428</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,39 +777,39 @@
         <v>14</v>
       </c>
       <c r="O5" s="3">
-        <f>SUM(D10:D15)</f>
+        <f t="shared" ref="O5:V5" si="1">SUM(D10:D15)</f>
         <v>9515</v>
       </c>
       <c r="P5" s="3">
-        <f>SUM(E10:E15)</f>
+        <f t="shared" si="1"/>
         <v>11082</v>
       </c>
       <c r="Q5" s="3">
-        <f>SUM(F10:F15)</f>
+        <f t="shared" si="1"/>
         <v>10828</v>
       </c>
       <c r="R5" s="3">
-        <f>SUM(G10:G15)</f>
+        <f t="shared" si="1"/>
         <v>10273</v>
       </c>
       <c r="S5" s="3">
-        <f>SUM(H10:H15)</f>
+        <f t="shared" si="1"/>
         <v>10454</v>
       </c>
       <c r="T5" s="3">
-        <f>SUM(I10:I15)</f>
+        <f t="shared" si="1"/>
         <v>10074</v>
       </c>
       <c r="U5" s="3">
-        <f>SUM(J10:J15)</f>
+        <f t="shared" si="1"/>
         <v>9341</v>
       </c>
       <c r="V5" s="3">
-        <f>SUM(K10:K15)</f>
+        <f t="shared" si="1"/>
         <v>8718</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -831,39 +847,39 @@
         <v>15</v>
       </c>
       <c r="O6" s="3">
-        <f>SUM(D16:D21)</f>
+        <f t="shared" ref="O6:V6" si="2">SUM(D16:D21)</f>
         <v>12500</v>
       </c>
       <c r="P6" s="3">
-        <f>SUM(E16:E21)</f>
+        <f t="shared" si="2"/>
         <v>14741</v>
       </c>
       <c r="Q6" s="3">
-        <f>SUM(F16:F21)</f>
+        <f t="shared" si="2"/>
         <v>15052</v>
       </c>
       <c r="R6" s="3">
-        <f>SUM(G16:G21)</f>
+        <f t="shared" si="2"/>
         <v>15814</v>
       </c>
       <c r="S6" s="3">
-        <f>SUM(H16:H21)</f>
+        <f t="shared" si="2"/>
         <v>17697</v>
       </c>
       <c r="T6" s="3">
-        <f>SUM(I16:I21)</f>
+        <f t="shared" si="2"/>
         <v>19373</v>
       </c>
       <c r="U6" s="3">
-        <f>SUM(J16:J21)</f>
+        <f t="shared" si="2"/>
         <v>20808</v>
       </c>
       <c r="V6" s="3">
-        <f>SUM(K16:K21)</f>
+        <f t="shared" si="2"/>
         <v>20645</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -901,39 +917,39 @@
         <v>16</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O7:V7" si="0">SUM(O4:O6)</f>
+        <f t="shared" ref="O7:V7" si="3">SUM(O4:O6)</f>
         <v>30887</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34884</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34419</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>34392</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>37066</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38730</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>40154</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>39791</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -968,7 +984,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1084,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1146,7 @@
         <v>69358</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,11 +1204,11 @@
       <c r="U12" s="3">
         <v>40154</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="17">
         <v>39791</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,36 +1249,36 @@
         <f>100-O14</f>
         <v>44.175748703211696</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="18">
         <f>(100-P14)</f>
         <v>45.931367990328276</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="18">
         <f>100-Q14</f>
         <v>44.286893604622932</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="18">
         <f>100-R14</f>
         <v>45.764208667129246</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="18">
         <f>100-S14</f>
         <v>43.683242931157608</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="18">
         <f>100-T14</f>
         <v>44.706974088086227</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="18">
         <f>100-U14</f>
         <v>42.873808507611322</v>
       </c>
-      <c r="V13" s="22">
-        <f t="shared" ref="V13" si="1">100-V14</f>
+      <c r="V13" s="18">
+        <f t="shared" ref="V13" si="4">100-V14</f>
         <v>42.629545257937082</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1300,39 +1316,39 @@
         <v>19</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" ref="O14:V14" si="2">(O12/O11)*100</f>
+        <f t="shared" ref="O14:V14" si="5">(O12/O11)*100</f>
         <v>55.824251296788304</v>
       </c>
-      <c r="P14" s="22">
-        <f t="shared" si="2"/>
+      <c r="P14" s="18">
+        <f t="shared" si="5"/>
         <v>54.068632009671724</v>
       </c>
-      <c r="Q14" s="22">
-        <f t="shared" si="2"/>
+      <c r="Q14" s="18">
+        <f t="shared" si="5"/>
         <v>55.713106395377068</v>
       </c>
-      <c r="R14" s="22">
-        <f t="shared" si="2"/>
+      <c r="R14" s="18">
+        <f t="shared" si="5"/>
         <v>54.235791332870754</v>
       </c>
-      <c r="S14" s="22">
-        <f t="shared" si="2"/>
+      <c r="S14" s="18">
+        <f t="shared" si="5"/>
         <v>56.316757068842392</v>
       </c>
-      <c r="T14" s="22">
-        <f t="shared" si="2"/>
+      <c r="T14" s="18">
+        <f t="shared" si="5"/>
         <v>55.293025911913773</v>
       </c>
-      <c r="U14" s="22">
-        <f t="shared" si="2"/>
+      <c r="U14" s="18">
+        <f t="shared" si="5"/>
         <v>57.126191492388678</v>
       </c>
-      <c r="V14" s="22">
-        <f t="shared" si="2"/>
+      <c r="V14" s="18">
+        <f t="shared" si="5"/>
         <v>57.370454742062918</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1383,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1406,7 +1422,7 @@
       </c>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,52 +1459,42 @@
       <c r="N17" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="17">
-        <f>SUM(D4,D6,D8,D10,D12,D14,D16,D18,D20)</f>
+      <c r="O17" s="3">
+        <f t="shared" ref="O17:V18" si="6">SUM(D4,D6,D8,D10,D12,D14,D16,D18,D20)</f>
         <v>21463</v>
       </c>
-      <c r="P17" s="18">
-        <f>SUM(E4,E6,E8,E10,E12,E14,E16,E18,E20)</f>
+      <c r="P17" s="3">
+        <f t="shared" si="6"/>
         <v>23770</v>
       </c>
-      <c r="Q17" s="18">
-        <f>SUM(F4,F6,F8,F10,F12,F14,F16,F18,F20)</f>
+      <c r="Q17" s="3">
+        <f t="shared" si="6"/>
         <v>23336</v>
       </c>
-      <c r="R17" s="18">
-        <f>SUM(G4,G6,G8,G10,G12,G14,G16,G18,G20)</f>
+      <c r="R17" s="3">
+        <f t="shared" si="6"/>
         <v>23383</v>
       </c>
       <c r="S17" s="3">
-        <f>SUM(H4,H6,H8,H10,H12,H14,H16,H18,H20)</f>
+        <f t="shared" si="6"/>
         <v>24850</v>
       </c>
       <c r="T17" s="3">
-        <f>SUM(I4,I6,I8,I10,I12,I14,I16,I18,I20)</f>
+        <f t="shared" si="6"/>
         <v>26007</v>
       </c>
       <c r="U17" s="3">
-        <f>SUM(J4,J6,J8,J10,J12,J14,J16,J18,J20)</f>
+        <f t="shared" si="6"/>
         <v>26824</v>
       </c>
       <c r="V17" s="3">
-        <f>SUM(K4,K6,K8,K10,K12,K14,K16,K18,K20)</f>
+        <f t="shared" si="6"/>
         <v>26565</v>
       </c>
-      <c r="X17" s="3">
-        <f>SUM(O17:V17)</f>
-        <v>196198</v>
-      </c>
-      <c r="Z17" s="3">
-        <f>SUM(D44:J4744)/7</f>
-        <v>64455.714285714283</v>
-      </c>
-      <c r="AA17">
-        <f>(Z18/Z17)*100</f>
-        <v>43.484563044393717</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1525,48 +1531,42 @@
       <c r="N18" t="s">
         <v>6</v>
       </c>
-      <c r="O18" s="17">
-        <f>SUM(D5,D7,D9,D11,D13,D15,D17,D19,D21)</f>
+      <c r="O18" s="3">
+        <f t="shared" si="6"/>
         <v>9424</v>
       </c>
-      <c r="P18" s="18">
-        <f>SUM(E5,E7,E9,E11,E13,E15,E17,E19,E21)</f>
+      <c r="P18" s="3">
+        <f t="shared" si="6"/>
         <v>11114</v>
       </c>
-      <c r="Q18" s="18">
-        <f>SUM(F5,F7,F9,F11,F13,F15,F17,F19,F21)</f>
+      <c r="Q18" s="3">
+        <f t="shared" si="6"/>
         <v>11083</v>
       </c>
-      <c r="R18" s="18">
-        <f>SUM(G5,G7,G9,G11,G13,G15,G17,G19,G21)</f>
+      <c r="R18" s="3">
+        <f t="shared" si="6"/>
         <v>11009</v>
       </c>
       <c r="S18" s="3">
-        <f>SUM(H5,H7,H9,H11,H13,H15,H17,H19,H21)</f>
+        <f t="shared" si="6"/>
         <v>12216</v>
       </c>
       <c r="T18" s="3">
-        <f>SUM(I5,I7,I9,I11,I13,I15,I17,I19,I21)</f>
+        <f t="shared" si="6"/>
         <v>12723</v>
       </c>
       <c r="U18" s="3">
-        <f>SUM(J5,J7,J9,J11,J13,J15,J17,J19,J21)</f>
+        <f t="shared" si="6"/>
         <v>13330</v>
       </c>
       <c r="V18" s="3">
-        <f>SUM(K5,K7,K9,K11,K13,K15,K17,K19,K21)</f>
+        <f t="shared" si="6"/>
         <v>13226</v>
       </c>
-      <c r="X18" s="3">
-        <f>SUM(O18:V18)</f>
-        <v>94125</v>
-      </c>
-      <c r="Z18" s="19">
-        <f>X17/7</f>
-        <v>28028.285714285714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X18" s="3"/>
+      <c r="Z18" s="16"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1603,48 +1603,40 @@
       <c r="N19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="23">
-        <f t="shared" ref="O19:V19" si="3">(O17/O7)*100</f>
+      <c r="O19" s="18">
+        <f t="shared" ref="O19:V19" si="7">(O17/O7)*100</f>
         <v>69.488781688088835</v>
       </c>
-      <c r="P19" s="23">
-        <f t="shared" si="3"/>
+      <c r="P19" s="18">
+        <f t="shared" si="7"/>
         <v>68.140121545694299</v>
       </c>
-      <c r="Q19" s="23">
-        <f t="shared" si="3"/>
+      <c r="Q19" s="18">
+        <f t="shared" si="7"/>
         <v>67.799761759493308</v>
       </c>
-      <c r="R19" s="23">
-        <f t="shared" si="3"/>
+      <c r="R19" s="18">
+        <f t="shared" si="7"/>
         <v>67.989648755524541</v>
       </c>
-      <c r="S19" s="22">
-        <f t="shared" si="3"/>
+      <c r="S19" s="18">
+        <f t="shared" si="7"/>
         <v>67.042572708142231</v>
       </c>
-      <c r="T19" s="22">
-        <f t="shared" si="3"/>
+      <c r="T19" s="18">
+        <f t="shared" si="7"/>
         <v>67.149496514329982</v>
       </c>
-      <c r="U19" s="22">
-        <f t="shared" si="3"/>
+      <c r="U19" s="18">
+        <f t="shared" si="7"/>
         <v>66.802809184639145</v>
       </c>
-      <c r="V19" s="22">
-        <f t="shared" si="3"/>
+      <c r="V19" s="18">
+        <f t="shared" si="7"/>
         <v>66.761327938478559</v>
       </c>
-      <c r="Z19">
-        <f>X18/7</f>
-        <v>13446.428571428571</v>
-      </c>
-      <c r="AA19">
-        <f>(Z19/Z17)*100</f>
-        <v>20.861499589973182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1681,43 +1673,40 @@
       <c r="N20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="18">
         <f>(O18/O7)*100</f>
         <v>30.511218311911158</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="18">
         <f>P18/P7*100</f>
         <v>31.859878454305701</v>
       </c>
-      <c r="Q20" s="23">
-        <f>(Q18/Q7)*100</f>
+      <c r="Q20" s="18">
+        <f t="shared" ref="Q20:V20" si="8">(Q18/Q7)*100</f>
         <v>32.200238240506692</v>
       </c>
-      <c r="R20" s="23">
-        <f>(R18/R7)*100</f>
+      <c r="R20" s="18">
+        <f t="shared" si="8"/>
         <v>32.010351244475459</v>
       </c>
-      <c r="S20" s="22">
-        <f>(S18/S7)*100</f>
+      <c r="S20" s="18">
+        <f t="shared" si="8"/>
         <v>32.957427291857769</v>
       </c>
-      <c r="T20" s="22">
-        <f>(T18/T7)*100</f>
+      <c r="T20" s="18">
+        <f t="shared" si="8"/>
         <v>32.850503485670025</v>
       </c>
-      <c r="U20" s="22">
-        <f>(U18/U7)*100</f>
+      <c r="U20" s="18">
+        <f t="shared" si="8"/>
         <v>33.197190815360862</v>
       </c>
-      <c r="V20" s="22">
-        <f>(V18/V7)*100</f>
+      <c r="V20" s="18">
+        <f t="shared" si="8"/>
         <v>33.238672061521449</v>
       </c>
-      <c r="AA20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1752,12 +1741,46 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="N23" t="s">
-        <v>25</v>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(D4:D21)</f>
+        <v>30887</v>
+      </c>
+      <c r="E22" s="3">
+        <f>SUM(E4:E21)</f>
+        <v>34884</v>
+      </c>
+      <c r="F22" s="3">
+        <f>SUM(F4:F21)</f>
+        <v>34419</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ref="G22:K22" si="9">SUM(G4:G21)</f>
+        <v>34392</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="9"/>
+        <v>37066</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="9"/>
+        <v>38730</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="9"/>
+        <v>40154</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="9"/>
+        <v>39791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="N23" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1767,7 +1790,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1802,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1867,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1889,27 +1912,27 @@
         <v>8872</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" ref="Q26:V26" si="4">SUM(E4:E9)</f>
+        <f t="shared" ref="Q26:V26" si="10">SUM(E4:E9)</f>
         <v>9061</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8539</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8305</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>8915</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>9283</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>10005</v>
       </c>
       <c r="W26" s="3">
@@ -1917,7 +1940,7 @@
         <v>10428</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1962,35 +1985,35 @@
         <v>8872</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" ref="Q27:W31" si="5">Q26</f>
+        <f t="shared" ref="Q27:W31" si="11">Q26</f>
         <v>9061</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8539</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8305</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8915</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9283</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10005</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10428</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2031,39 +2054,39 @@
         <v>5</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" ref="P28:P31" si="6">P27</f>
+        <f t="shared" ref="P28:P31" si="12">P27</f>
         <v>8872</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9061</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8539</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8305</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8915</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9283</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10005</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10428</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2104,39 +2127,39 @@
         <v>6</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8872</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9061</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8539</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8305</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8915</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9283</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10005</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10428</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2177,39 +2200,39 @@
         <v>5</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8872</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9061</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8539</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8305</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8915</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9283</v>
       </c>
       <c r="V30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10005</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10428</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2250,39 +2273,39 @@
         <v>6</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>8872</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9061</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8539</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8305</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>8915</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9283</v>
       </c>
       <c r="V31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10005</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10428</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2322,40 +2345,40 @@
       <c r="O32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P32" s="3">
         <f>SUM(D10:D15)</f>
         <v>9515</v>
       </c>
-      <c r="Q32" s="12">
-        <f t="shared" ref="Q32:W32" si="7">SUM(E10:E15)</f>
+      <c r="Q32" s="3">
+        <f t="shared" ref="Q32:W32" si="13">SUM(E10:E15)</f>
         <v>11082</v>
       </c>
-      <c r="R32" s="12">
-        <f t="shared" si="7"/>
+      <c r="R32" s="3">
+        <f t="shared" si="13"/>
         <v>10828</v>
       </c>
-      <c r="S32" s="12">
-        <f t="shared" si="7"/>
+      <c r="S32" s="3">
+        <f t="shared" si="13"/>
         <v>10273</v>
       </c>
-      <c r="T32" s="12">
-        <f t="shared" si="7"/>
+      <c r="T32" s="3">
+        <f t="shared" si="13"/>
         <v>10454</v>
       </c>
-      <c r="U32" s="12">
-        <f t="shared" si="7"/>
+      <c r="U32" s="3">
+        <f t="shared" si="13"/>
         <v>10074</v>
       </c>
-      <c r="V32" s="12">
-        <f t="shared" si="7"/>
+      <c r="V32" s="3">
+        <f t="shared" si="13"/>
         <v>9341</v>
       </c>
-      <c r="W32" s="12">
-        <f t="shared" si="7"/>
+      <c r="W32" s="3">
+        <f t="shared" si="13"/>
         <v>8718</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2395,40 +2418,40 @@
       <c r="O33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P33" s="3">
         <f>P32</f>
         <v>9515</v>
       </c>
-      <c r="Q33" s="12">
-        <f t="shared" ref="Q33:W33" si="8">Q32</f>
+      <c r="Q33" s="3">
+        <f t="shared" ref="Q33:W33" si="14">Q32</f>
         <v>11082</v>
       </c>
-      <c r="R33" s="12">
-        <f t="shared" si="8"/>
+      <c r="R33" s="3">
+        <f t="shared" si="14"/>
         <v>10828</v>
       </c>
-      <c r="S33" s="12">
-        <f t="shared" si="8"/>
+      <c r="S33" s="3">
+        <f t="shared" si="14"/>
         <v>10273</v>
       </c>
-      <c r="T33" s="12">
-        <f t="shared" si="8"/>
+      <c r="T33" s="3">
+        <f t="shared" si="14"/>
         <v>10454</v>
       </c>
-      <c r="U33" s="12">
-        <f t="shared" si="8"/>
+      <c r="U33" s="3">
+        <f t="shared" si="14"/>
         <v>10074</v>
       </c>
-      <c r="V33" s="12">
-        <f t="shared" si="8"/>
+      <c r="V33" s="3">
+        <f t="shared" si="14"/>
         <v>9341</v>
       </c>
-      <c r="W33" s="12">
-        <f t="shared" si="8"/>
+      <c r="W33" s="3">
+        <f t="shared" si="14"/>
         <v>8718</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2468,32 +2491,32 @@
       <c r="O34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="3">
         <v>9515</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="3">
         <v>9515</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="3">
         <v>9515</v>
       </c>
-      <c r="S34" s="12">
+      <c r="S34" s="3">
         <v>9515</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="3">
         <v>9515</v>
       </c>
-      <c r="U34" s="12">
+      <c r="U34" s="3">
         <v>9515</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34" s="3">
         <v>9515</v>
       </c>
-      <c r="W34" s="12">
+      <c r="W34" s="3">
         <v>9515</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -2533,32 +2556,32 @@
       <c r="O35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="3">
         <v>9515</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="3">
         <v>9515</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="3">
         <v>9515</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="3">
         <v>9515</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="3">
         <v>9515</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="3">
         <v>9515</v>
       </c>
-      <c r="V35" s="12">
+      <c r="V35" s="3">
         <v>9515</v>
       </c>
-      <c r="W35" s="12">
+      <c r="W35" s="3">
         <v>9515</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -2598,32 +2621,32 @@
       <c r="O36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="3">
         <v>9515</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="3">
         <v>9515</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="3">
         <v>9515</v>
       </c>
-      <c r="S36" s="12">
+      <c r="S36" s="3">
         <v>9515</v>
       </c>
-      <c r="T36" s="12">
+      <c r="T36" s="3">
         <v>9515</v>
       </c>
-      <c r="U36" s="12">
+      <c r="U36" s="3">
         <v>9515</v>
       </c>
-      <c r="V36" s="12">
+      <c r="V36" s="3">
         <v>9515</v>
       </c>
-      <c r="W36" s="12">
+      <c r="W36" s="3">
         <v>9515</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2663,32 +2686,32 @@
       <c r="O37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="3">
         <v>9515</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="3">
         <v>9515</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="3">
         <v>9515</v>
       </c>
-      <c r="S37" s="12">
+      <c r="S37" s="3">
         <v>9515</v>
       </c>
-      <c r="T37" s="12">
+      <c r="T37" s="3">
         <v>9515</v>
       </c>
-      <c r="U37" s="12">
+      <c r="U37" s="3">
         <v>9515</v>
       </c>
-      <c r="V37" s="12">
+      <c r="V37" s="3">
         <v>9515</v>
       </c>
-      <c r="W37" s="12">
+      <c r="W37" s="3">
         <v>9515</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2728,40 +2751,40 @@
       <c r="O38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="3">
         <f>SUM(D16:D21)</f>
         <v>12500</v>
       </c>
-      <c r="Q38" s="12">
-        <f t="shared" ref="Q38:W38" si="9">SUM(E16:E21)</f>
+      <c r="Q38" s="3">
+        <f t="shared" ref="Q38:W38" si="15">SUM(E16:E21)</f>
         <v>14741</v>
       </c>
-      <c r="R38" s="12">
-        <f t="shared" si="9"/>
+      <c r="R38" s="3">
+        <f t="shared" si="15"/>
         <v>15052</v>
       </c>
-      <c r="S38" s="12">
-        <f t="shared" si="9"/>
+      <c r="S38" s="3">
+        <f t="shared" si="15"/>
         <v>15814</v>
       </c>
-      <c r="T38" s="12">
-        <f t="shared" si="9"/>
+      <c r="T38" s="3">
+        <f t="shared" si="15"/>
         <v>17697</v>
       </c>
-      <c r="U38" s="12">
-        <f t="shared" si="9"/>
+      <c r="U38" s="3">
+        <f t="shared" si="15"/>
         <v>19373</v>
       </c>
-      <c r="V38" s="12">
-        <f t="shared" si="9"/>
+      <c r="V38" s="3">
+        <f t="shared" si="15"/>
         <v>20808</v>
       </c>
-      <c r="W38" s="12">
-        <f t="shared" si="9"/>
+      <c r="W38" s="3">
+        <f t="shared" si="15"/>
         <v>20645</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2801,40 +2824,40 @@
       <c r="O39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P39" s="3">
         <f>P38</f>
         <v>12500</v>
       </c>
-      <c r="Q39" s="12">
-        <f t="shared" ref="Q39:W43" si="10">Q38</f>
+      <c r="Q39" s="3">
+        <f t="shared" ref="Q39:W43" si="16">Q38</f>
         <v>14741</v>
       </c>
-      <c r="R39" s="12">
-        <f t="shared" si="10"/>
+      <c r="R39" s="3">
+        <f t="shared" si="16"/>
         <v>15052</v>
       </c>
-      <c r="S39" s="12">
-        <f t="shared" si="10"/>
+      <c r="S39" s="3">
+        <f t="shared" si="16"/>
         <v>15814</v>
       </c>
-      <c r="T39" s="12">
-        <f t="shared" si="10"/>
+      <c r="T39" s="3">
+        <f t="shared" si="16"/>
         <v>17697</v>
       </c>
-      <c r="U39" s="12">
-        <f t="shared" si="10"/>
+      <c r="U39" s="3">
+        <f t="shared" si="16"/>
         <v>19373</v>
       </c>
-      <c r="V39" s="12">
-        <f t="shared" si="10"/>
+      <c r="V39" s="3">
+        <f t="shared" si="16"/>
         <v>20808</v>
       </c>
-      <c r="W39" s="12">
-        <f t="shared" si="10"/>
+      <c r="W39" s="3">
+        <f t="shared" si="16"/>
         <v>20645</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2874,40 +2897,40 @@
       <c r="O40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P40" s="12">
-        <f t="shared" ref="P40:P43" si="11">P39</f>
+      <c r="P40" s="3">
+        <f t="shared" ref="P40:P43" si="17">P39</f>
         <v>12500</v>
       </c>
-      <c r="Q40" s="12">
-        <f t="shared" si="10"/>
+      <c r="Q40" s="3">
+        <f t="shared" si="16"/>
         <v>14741</v>
       </c>
-      <c r="R40" s="12">
-        <f t="shared" si="10"/>
+      <c r="R40" s="3">
+        <f t="shared" si="16"/>
         <v>15052</v>
       </c>
-      <c r="S40" s="12">
-        <f t="shared" si="10"/>
+      <c r="S40" s="3">
+        <f t="shared" si="16"/>
         <v>15814</v>
       </c>
-      <c r="T40" s="12">
-        <f t="shared" si="10"/>
+      <c r="T40" s="3">
+        <f t="shared" si="16"/>
         <v>17697</v>
       </c>
-      <c r="U40" s="12">
-        <f t="shared" si="10"/>
+      <c r="U40" s="3">
+        <f t="shared" si="16"/>
         <v>19373</v>
       </c>
-      <c r="V40" s="12">
-        <f t="shared" si="10"/>
+      <c r="V40" s="3">
+        <f t="shared" si="16"/>
         <v>20808</v>
       </c>
-      <c r="W40" s="12">
-        <f t="shared" si="10"/>
+      <c r="W40" s="3">
+        <f t="shared" si="16"/>
         <v>20645</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2947,40 +2970,40 @@
       <c r="O41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P41" s="12">
-        <f t="shared" si="11"/>
+      <c r="P41" s="3">
+        <f t="shared" si="17"/>
         <v>12500</v>
       </c>
-      <c r="Q41" s="12">
-        <f t="shared" si="10"/>
+      <c r="Q41" s="3">
+        <f t="shared" si="16"/>
         <v>14741</v>
       </c>
-      <c r="R41" s="12">
-        <f t="shared" si="10"/>
+      <c r="R41" s="3">
+        <f t="shared" si="16"/>
         <v>15052</v>
       </c>
-      <c r="S41" s="12">
-        <f t="shared" si="10"/>
+      <c r="S41" s="3">
+        <f t="shared" si="16"/>
         <v>15814</v>
       </c>
-      <c r="T41" s="12">
-        <f t="shared" si="10"/>
+      <c r="T41" s="3">
+        <f t="shared" si="16"/>
         <v>17697</v>
       </c>
-      <c r="U41" s="12">
-        <f t="shared" si="10"/>
+      <c r="U41" s="3">
+        <f t="shared" si="16"/>
         <v>19373</v>
       </c>
-      <c r="V41" s="12">
-        <f t="shared" si="10"/>
+      <c r="V41" s="3">
+        <f t="shared" si="16"/>
         <v>20808</v>
       </c>
-      <c r="W41" s="12">
-        <f t="shared" si="10"/>
+      <c r="W41" s="3">
+        <f t="shared" si="16"/>
         <v>20645</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -3020,40 +3043,40 @@
       <c r="O42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="12">
-        <f t="shared" si="11"/>
+      <c r="P42" s="3">
+        <f t="shared" si="17"/>
         <v>12500</v>
       </c>
-      <c r="Q42" s="12">
-        <f t="shared" si="10"/>
+      <c r="Q42" s="3">
+        <f t="shared" si="16"/>
         <v>14741</v>
       </c>
-      <c r="R42" s="12">
-        <f t="shared" si="10"/>
+      <c r="R42" s="3">
+        <f t="shared" si="16"/>
         <v>15052</v>
       </c>
-      <c r="S42" s="12">
-        <f t="shared" si="10"/>
+      <c r="S42" s="3">
+        <f t="shared" si="16"/>
         <v>15814</v>
       </c>
-      <c r="T42" s="12">
-        <f t="shared" si="10"/>
+      <c r="T42" s="3">
+        <f t="shared" si="16"/>
         <v>17697</v>
       </c>
-      <c r="U42" s="12">
-        <f t="shared" si="10"/>
+      <c r="U42" s="3">
+        <f t="shared" si="16"/>
         <v>19373</v>
       </c>
-      <c r="V42" s="12">
-        <f t="shared" si="10"/>
+      <c r="V42" s="3">
+        <f t="shared" si="16"/>
         <v>20808</v>
       </c>
-      <c r="W42" s="12">
-        <f t="shared" si="10"/>
+      <c r="W42" s="3">
+        <f t="shared" si="16"/>
         <v>20645</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -3093,41 +3116,43 @@
       <c r="O43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="12">
-        <f t="shared" si="11"/>
+      <c r="P43" s="3">
+        <f t="shared" si="17"/>
         <v>12500</v>
       </c>
-      <c r="Q43" s="12">
-        <f t="shared" si="10"/>
+      <c r="Q43" s="3">
+        <f t="shared" si="16"/>
         <v>14741</v>
       </c>
-      <c r="R43" s="12">
-        <f t="shared" si="10"/>
+      <c r="R43" s="3">
+        <f t="shared" si="16"/>
         <v>15052</v>
       </c>
-      <c r="S43" s="12">
-        <f t="shared" si="10"/>
+      <c r="S43" s="3">
+        <f t="shared" si="16"/>
         <v>15814</v>
       </c>
-      <c r="T43" s="12">
-        <f t="shared" si="10"/>
+      <c r="T43" s="3">
+        <f t="shared" si="16"/>
         <v>17697</v>
       </c>
-      <c r="U43" s="12">
-        <f t="shared" si="10"/>
+      <c r="U43" s="3">
+        <f t="shared" si="16"/>
         <v>19373</v>
       </c>
-      <c r="V43" s="12">
-        <f t="shared" si="10"/>
+      <c r="V43" s="3">
+        <f t="shared" si="16"/>
         <v>20808</v>
       </c>
-      <c r="W43" s="12">
-        <f t="shared" si="10"/>
+      <c r="W43" s="3">
+        <f t="shared" si="16"/>
         <v>20645</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:24" ht="26.25" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="6">
@@ -3155,1017 +3180,873 @@
         <v>69358</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K46" s="1" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="M45" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="M46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>2010</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>2011</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>2012</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>2013</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>2014</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <v>2015</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>2016</v>
       </c>
-      <c r="U46" s="24">
+      <c r="W46">
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K47" s="1" t="s">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="M47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N47" s="13">
+      <c r="P47" s="12">
         <f>100/P26*D4</f>
         <v>56.9882777276826</v>
       </c>
-      <c r="O47" s="13">
+      <c r="Q47" s="12">
         <f>100/Q26*E4</f>
         <v>54.740094912261334</v>
       </c>
-      <c r="P47" s="13">
+      <c r="R47" s="12">
         <f>100/R26*F4</f>
         <v>54.70195573252137</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="S47" s="12">
         <f>100/S26*G4</f>
         <v>56.435881998795907</v>
       </c>
-      <c r="R47" s="13">
+      <c r="T47" s="12">
         <f>100/T26*H4</f>
         <v>54.526079641054409</v>
       </c>
-      <c r="S47" s="13">
+      <c r="U47" s="12">
         <f>100/U26*I4</f>
         <v>54.206614241085852</v>
       </c>
-      <c r="T47" s="13">
+      <c r="V47" s="12">
         <f>100/V26*J4</f>
         <v>53.123438280859574</v>
       </c>
-      <c r="U47" s="13">
+      <c r="W47" s="12">
         <f>100/W26*K4</f>
         <v>54.76601457614116</v>
       </c>
-      <c r="X47" s="20">
-        <f>SUM(N47:U47)/8</f>
-        <v>54.936044638800269</v>
-      </c>
-      <c r="Y47">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K48" s="1" t="s">
+      <c r="X47" s="19"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="M48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N48" s="13">
+      <c r="P48" s="12">
         <f>100/P27*D5</f>
         <v>25.371956717763751</v>
       </c>
-      <c r="O48" s="13">
+      <c r="Q48" s="12">
         <f>100/Q27*E5</f>
         <v>26.14501710627966</v>
       </c>
-      <c r="P48" s="13">
+      <c r="R48" s="12">
         <f>100/R27*F5</f>
         <v>26.595620096029979</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="S48" s="12">
         <f>100/S27*G5</f>
         <v>25.695364238410598</v>
       </c>
-      <c r="R48" s="13">
+      <c r="T48" s="12">
         <f>100/T27*H5</f>
         <v>27.066741446999441</v>
       </c>
-      <c r="S48" s="13">
+      <c r="U48" s="12">
         <f>100/U27*I5</f>
         <v>26.963266185500377</v>
       </c>
-      <c r="T48" s="13">
+      <c r="V48" s="12">
         <f>100/V27*J5</f>
         <v>27.556221889055475</v>
       </c>
-      <c r="U48" s="13">
-        <f t="shared" ref="U48:U66" si="12">100/W27*K5</f>
+      <c r="W48" s="12">
+        <f>100/W27*K5</f>
         <v>26.390487149980821</v>
       </c>
-      <c r="X48" s="20">
-        <f t="shared" ref="X48:X64" si="13">SUM(N48:U48)/8</f>
-        <v>26.473084353752512</v>
-      </c>
-      <c r="Y48">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="49" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K49" s="1" t="s">
+      <c r="X48" s="19"/>
+    </row>
+    <row r="49" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="13">
+      <c r="P49" s="12">
         <f>100/P28*D6</f>
         <v>9.0960324616771864</v>
       </c>
-      <c r="O49" s="13">
+      <c r="Q49" s="12">
         <f>100/Q28*E6</f>
         <v>10.274804105507117</v>
       </c>
-      <c r="P49" s="13">
+      <c r="R49" s="12">
         <f>100/R28*F6</f>
         <v>9.8957723386813434</v>
       </c>
-      <c r="Q49" s="13">
+      <c r="S49" s="12">
         <f>100/S28*G6</f>
         <v>9.5364238410596034</v>
       </c>
-      <c r="R49" s="13">
+      <c r="T49" s="12">
         <f>100/T28*H6</f>
         <v>9.8485698261357264</v>
       </c>
-      <c r="S49" s="13">
+      <c r="U49" s="12">
         <f>100/U28*I6</f>
         <v>10.24453301734353</v>
       </c>
-      <c r="T49" s="13">
+      <c r="V49" s="12">
         <f>100/V28*J6</f>
         <v>10.054972513743129</v>
       </c>
-      <c r="U49" s="13">
-        <f t="shared" si="12"/>
+      <c r="W49" s="12">
+        <f>100/W28*K6</f>
         <v>9.9443805140007679</v>
       </c>
-      <c r="X49" s="20">
-        <f t="shared" si="13"/>
-        <v>9.8619360772685507</v>
-      </c>
-      <c r="Y49">
-        <v>10</v>
-      </c>
-      <c r="AA49">
-        <f>(SUM(Y47,Y54,Y61))/3</f>
-        <v>56.666666666666664</v>
-      </c>
-    </row>
-    <row r="50" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K50" s="1" t="s">
+      <c r="X49" s="19"/>
+    </row>
+    <row r="50" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N50" s="13">
+      <c r="P50" s="12">
         <f>100/P29*D7</f>
         <v>5.6131650135256992</v>
       </c>
-      <c r="O50" s="13">
+      <c r="Q50" s="12">
         <f>100/Q29*E7</f>
         <v>5.9816797262995252</v>
       </c>
-      <c r="P50" s="13">
+      <c r="R50" s="12">
         <f>100/R29*F7</f>
         <v>6.1131280009368778</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="S50" s="12">
         <f>100/S29*G7</f>
         <v>5.7194461167971102</v>
       </c>
-      <c r="R50" s="13">
+      <c r="T50" s="12">
         <f>100/T29*H7</f>
         <v>6.315199102636007</v>
       </c>
-      <c r="S50" s="13">
+      <c r="U50" s="12">
         <f>100/U29*I7</f>
         <v>6.1187116233976084</v>
       </c>
-      <c r="T50" s="13">
+      <c r="V50" s="12">
         <f>100/V29*J7</f>
         <v>6.5567216391804104</v>
       </c>
-      <c r="U50" s="13">
-        <f t="shared" si="12"/>
+      <c r="W50" s="12">
+        <f>100/W29*K7</f>
         <v>6.3003452243958575</v>
       </c>
-      <c r="X50" s="20">
-        <f t="shared" si="13"/>
-        <v>6.0897995558961364</v>
-      </c>
-      <c r="Y50">
-        <v>6</v>
-      </c>
-      <c r="AA50">
-        <f>(SUM(Y48,Y55,Y62))/3</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K51" s="1" t="s">
+      <c r="X50" s="19"/>
+    </row>
+    <row r="51" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="13">
+      <c r="P51" s="12">
         <f>100/P30*D8</f>
         <v>1.442741208295762</v>
       </c>
-      <c r="O51" s="13">
+      <c r="Q51" s="12">
         <f>100/Q30*E8</f>
         <v>1.556119633594526</v>
       </c>
-      <c r="P51" s="13">
+      <c r="R51" s="12">
         <f>100/R30*F8</f>
         <v>1.4287387281883124</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="S51" s="12">
         <f>100/S30*G8</f>
         <v>1.4087898856110777</v>
       </c>
-      <c r="R51" s="13">
+      <c r="T51" s="12">
         <f>100/T30*H8</f>
         <v>1.2338754907459339</v>
       </c>
-      <c r="S51" s="13">
+      <c r="U51" s="12">
         <f>100/U30*I8</f>
         <v>1.2926855542389313</v>
       </c>
-      <c r="T51" s="13">
+      <c r="V51" s="12">
         <f>100/V30*J8</f>
         <v>1.359320339830085</v>
       </c>
-      <c r="U51" s="13">
-        <f t="shared" si="12"/>
+      <c r="W51" s="12">
+        <f>100/W30*K8</f>
         <v>1.3041810510164942</v>
       </c>
-      <c r="X51" s="20">
-        <f t="shared" si="13"/>
-        <v>1.3783064864401402</v>
-      </c>
-      <c r="Y51">
-        <v>1.5</v>
-      </c>
-      <c r="AA51">
-        <f>(SUM(Y49,Y56,Y63))/3</f>
-        <v>9.6666666666666661</v>
-      </c>
-    </row>
-    <row r="52" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K52" s="1" t="s">
+      <c r="X51" s="19"/>
+    </row>
+    <row r="52" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N52" s="13">
+      <c r="P52" s="12">
         <f>100/P31*D9</f>
         <v>1.4878268710550047</v>
       </c>
-      <c r="O52" s="13">
+      <c r="Q52" s="12">
         <f>100/Q31*E9</f>
         <v>1.3022845160578302</v>
       </c>
-      <c r="P52" s="13">
+      <c r="R52" s="12">
         <f>100/R31*F9</f>
         <v>1.2647851036421127</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="S52" s="12">
         <f>100/S31*G9</f>
         <v>1.2040939193257074</v>
       </c>
-      <c r="R52" s="13">
+      <c r="T52" s="12">
         <f>100/T31*H9</f>
         <v>1.0095344924284912</v>
       </c>
-      <c r="S52" s="13">
+      <c r="U52" s="12">
         <f>100/U31*I9</f>
         <v>1.1741893784336959</v>
       </c>
-      <c r="T52" s="13">
+      <c r="V52" s="12">
         <f>100/V31*J9</f>
         <v>1.3493253373313343</v>
       </c>
-      <c r="U52" s="13">
-        <f t="shared" si="12"/>
+      <c r="W52" s="12">
+        <f>100/W31*K9</f>
         <v>1.2945914844649022</v>
       </c>
-      <c r="X52" s="20">
-        <f t="shared" si="13"/>
-        <v>1.2608288878423848</v>
-      </c>
-      <c r="Y52" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z52">
-        <f>SUM(Y47:Y52)</f>
-        <v>100</v>
-      </c>
-      <c r="AA52">
-        <f>(SUM(Y50,Y57,Y64))/3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="15"/>
+    </row>
+    <row r="53" spans="13:25" x14ac:dyDescent="0.45">
       <c r="M53" s="1"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="X53" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <f>(SUM(Y51,Y58,Y65))/3</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="54" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K54" s="1" t="s">
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="19"/>
+    </row>
+    <row r="54" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="14">
+      <c r="P54" s="13">
         <f>100/P32*D10</f>
         <v>58.097740409879137</v>
       </c>
-      <c r="O54" s="14">
+      <c r="Q54" s="13">
         <f>100/Q32*E10</f>
         <v>55.396137881248869</v>
       </c>
-      <c r="P54" s="14">
+      <c r="R54" s="13">
         <f>100/R32*F10</f>
         <v>54.950129294421863</v>
       </c>
-      <c r="Q54" s="14">
+      <c r="S54" s="13">
         <f>100/S32*G10</f>
         <v>55.037476881144748</v>
       </c>
-      <c r="R54" s="14">
+      <c r="T54" s="13">
         <f>100/T32*H10</f>
         <v>53.960206619475798</v>
       </c>
-      <c r="S54" s="14">
+      <c r="U54" s="13">
         <f>100/U32*I10</f>
         <v>53.801866190192577</v>
       </c>
-      <c r="T54" s="14">
+      <c r="V54" s="13">
         <f>100/V32*J10</f>
         <v>54.137672626057167</v>
       </c>
-      <c r="U54" s="14">
+      <c r="W54" s="13">
         <f>100/W32*K10</f>
         <v>52.879100711172285</v>
       </c>
-      <c r="X54" s="20">
-        <f t="shared" si="13"/>
-        <v>54.782541326699054</v>
-      </c>
-      <c r="Y54">
-        <v>55</v>
-      </c>
-      <c r="AA54">
-        <f>(SUM(Y52,Y59,Y66))/3</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="55" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K55" s="1" t="s">
+      <c r="X54" s="19"/>
+    </row>
+    <row r="55" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N55" s="14">
+      <c r="P55" s="13">
         <f>100/P33*D11</f>
         <v>23.836048344718865</v>
       </c>
-      <c r="O55" s="14">
+      <c r="Q55" s="13">
         <f>100/Q33*E11</f>
         <v>25.302292005053239</v>
       </c>
-      <c r="P55" s="14">
+      <c r="R55" s="13">
         <f>100/R33*F11</f>
         <v>25.960472848171406</v>
       </c>
-      <c r="Q55" s="14">
+      <c r="S55" s="13">
         <f>100/S33*G11</f>
         <v>25.883383626983353</v>
       </c>
-      <c r="R55" s="14">
+      <c r="T55" s="13">
         <f>100/T33*H11</f>
         <v>26.210063133728717</v>
       </c>
-      <c r="S55" s="14">
+      <c r="U55" s="13">
         <f>100/U33*I11</f>
         <v>27.159023228111973</v>
       </c>
-      <c r="T55" s="14">
+      <c r="V55" s="13">
         <f>100/V33*J11</f>
         <v>27.27759340541698</v>
       </c>
-      <c r="U55" s="14">
+      <c r="W55" s="13">
         <f>100/W33*K11</f>
         <v>27.437485661849049</v>
       </c>
-      <c r="X55" s="20">
-        <f t="shared" si="13"/>
-        <v>26.133295281754197</v>
-      </c>
-      <c r="Y55">
-        <v>26</v>
-      </c>
-      <c r="AA55">
-        <f>(SUM(Y53,Y60,W67))/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K56" s="1" t="s">
+      <c r="X55" s="19"/>
+    </row>
+    <row r="56" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N56" s="14">
+      <c r="P56" s="13">
         <f>100/P34*D12</f>
         <v>9.1329479768786133</v>
       </c>
-      <c r="O56" s="14">
+      <c r="Q56" s="13">
         <f>100/Q34*E12</f>
         <v>11.539674198633737</v>
       </c>
-      <c r="P56" s="14">
+      <c r="R56" s="13">
         <f>100/R34*F12</f>
         <v>10.993168681029953</v>
       </c>
-      <c r="Q56" s="14">
+      <c r="S56" s="13">
         <f>100/S34*G12</f>
         <v>10.415133998949027</v>
       </c>
-      <c r="R56" s="14">
+      <c r="T56" s="13">
         <f>100/T34*H12</f>
         <v>10.719915922228061</v>
       </c>
-      <c r="S56" s="14">
+      <c r="U56" s="13">
         <f>100/U34*I12</f>
         <v>10.057803468208093</v>
       </c>
-      <c r="T56" s="14">
+      <c r="V56" s="13">
         <f>100/V34*J12</f>
         <v>9.5638465580662118</v>
       </c>
-      <c r="U56" s="14">
+      <c r="W56" s="13">
         <f>100/W34*K12</f>
         <v>9.795060430898582</v>
       </c>
-      <c r="X56" s="20">
-        <f t="shared" si="13"/>
-        <v>10.277193904361535</v>
-      </c>
-      <c r="Y56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K57" s="1" t="s">
+      <c r="X56" s="19"/>
+    </row>
+    <row r="57" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N57" s="14">
+      <c r="P57" s="13">
         <f>100/P35*D13</f>
         <v>5.5281135049921177</v>
       </c>
-      <c r="O57" s="14">
+      <c r="Q57" s="13">
         <f>100/Q35*E13</f>
         <v>7.3462953231739361</v>
       </c>
-      <c r="P57" s="14">
+      <c r="R57" s="13">
         <f>100/R35*F13</f>
         <v>7.398843930635838</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="S57" s="13">
         <f>100/S35*G13</f>
         <v>7.146610614818707</v>
       </c>
-      <c r="R57" s="14">
+      <c r="T57" s="13">
         <f>100/T35*H13</f>
         <v>8.1450341565948499</v>
       </c>
-      <c r="S57" s="14">
+      <c r="U57" s="13">
         <f>100/U35*I13</f>
         <v>7.3568050446663165</v>
       </c>
-      <c r="T57" s="14">
+      <c r="V57" s="13">
         <f>100/V35*J13</f>
         <v>6.0746190225959014</v>
       </c>
-      <c r="U57" s="14">
+      <c r="W57" s="13">
         <f>100/W35*K13</f>
         <v>5.7067787703625852</v>
       </c>
-      <c r="X57" s="20">
-        <f t="shared" si="13"/>
-        <v>6.8378875459800312</v>
-      </c>
-      <c r="Y57">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="58" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K58" s="1" t="s">
+      <c r="X57" s="19"/>
+    </row>
+    <row r="58" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="14">
+      <c r="P58" s="13">
         <f>100/P36*D14</f>
         <v>1.8076720966894377</v>
       </c>
-      <c r="O58" s="14">
+      <c r="Q58" s="13">
         <f>100/Q36*E14</f>
         <v>1.744613767735155</v>
       </c>
-      <c r="P58" s="14">
+      <c r="R58" s="13">
         <f>100/R36*F14</f>
         <v>1.6710457172884918</v>
       </c>
-      <c r="Q58" s="14">
+      <c r="S58" s="13">
         <f>100/S36*G14</f>
         <v>1.4713610089332634</v>
       </c>
-      <c r="R58" s="14">
+      <c r="T58" s="13">
         <f>100/T36*H14</f>
         <v>1.3767735155018392</v>
       </c>
-      <c r="S58" s="14">
+      <c r="U58" s="13">
         <f>100/U36*I14</f>
         <v>1.3137151865475565</v>
       </c>
-      <c r="T58" s="14">
+      <c r="V58" s="13">
         <f>100/V36*J14</f>
         <v>1.2296374146085129</v>
       </c>
-      <c r="U58" s="14">
+      <c r="W58" s="13">
         <f>100/W36*K14</f>
         <v>1.3032054650551761</v>
       </c>
-      <c r="X58" s="20">
-        <f t="shared" si="13"/>
-        <v>1.4897530215449291</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K59" s="1" t="s">
+      <c r="X58" s="19"/>
+    </row>
+    <row r="59" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N59" s="14">
+      <c r="P59" s="13">
         <f>100/P37*D15</f>
         <v>1.5974776668418287</v>
       </c>
-      <c r="O59" s="14">
+      <c r="Q59" s="13">
         <f>100/Q37*E15</f>
         <v>1.8497109826589595</v>
       </c>
-      <c r="P59" s="14">
+      <c r="R59" s="13">
         <f>100/R37*F15</f>
         <v>1.6605359957961114</v>
       </c>
-      <c r="Q59" s="14">
+      <c r="S59" s="13">
         <f>100/S37*G15</f>
         <v>1.5659485023646873</v>
       </c>
-      <c r="R59" s="14">
+      <c r="T59" s="13">
         <f>100/T37*H15</f>
         <v>1.5449290593799265</v>
       </c>
-      <c r="S59" s="14">
+      <c r="U59" s="13">
         <f>100/U37*I15</f>
         <v>1.4293221229637414</v>
       </c>
-      <c r="T59" s="14">
+      <c r="V59" s="13">
         <f>100/V37*J15</f>
         <v>1.3767735155018392</v>
       </c>
-      <c r="U59" s="14">
+      <c r="W59" s="13">
         <f>100/W37*K15</f>
         <v>1.2296374146085129</v>
       </c>
-      <c r="X59" s="20">
-        <f>SUM(N59:U59)/8</f>
-        <v>1.5317919075144508</v>
-      </c>
-      <c r="Y59" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="Z59">
-        <f>SUM(Y54:Y59)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="16"/>
+    </row>
+    <row r="60" spans="13:25" x14ac:dyDescent="0.45">
       <c r="M60" s="1"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="X60" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K61" s="1" t="s">
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="19"/>
+    </row>
+    <row r="61" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N61" s="15">
+      <c r="P61" s="14">
         <f>100/P38*D16</f>
         <v>61.112000000000002</v>
       </c>
-      <c r="O61" s="15">
+      <c r="Q61" s="14">
         <f>100/Q38*E16</f>
         <v>59.7042263075775</v>
       </c>
-      <c r="P61" s="15">
+      <c r="R61" s="14">
         <f>100/R38*F16</f>
         <v>59.101780494286473</v>
       </c>
-      <c r="Q61" s="15">
+      <c r="S61" s="14">
         <f>100/S38*G16</f>
         <v>59.02364993044138</v>
       </c>
-      <c r="R61" s="15">
+      <c r="T61" s="14">
         <f>100/T38*H16</f>
         <v>57.653839633836242</v>
       </c>
-      <c r="S61" s="15">
+      <c r="U61" s="14">
         <f>100/U38*I16</f>
         <v>57.998244980126977</v>
       </c>
-      <c r="T61" s="15">
+      <c r="V61" s="14">
         <f>100/V38*J16</f>
         <v>56.867550941945403</v>
       </c>
-      <c r="U61" s="15">
+      <c r="W61" s="14">
         <f>100/W38*K16</f>
         <v>56.517316541535479</v>
       </c>
-      <c r="X61" s="20">
-        <f t="shared" si="13"/>
-        <v>58.497326103718677</v>
-      </c>
-      <c r="Y61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K62" s="1" t="s">
+      <c r="X61" s="19"/>
+    </row>
+    <row r="62" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N62" s="15">
+      <c r="P62" s="14">
         <f>100/P39*D17</f>
         <v>20.495999999999999</v>
       </c>
-      <c r="O62" s="15">
+      <c r="Q62" s="14">
         <f>100/Q39*E17</f>
         <v>21.830269316871309</v>
       </c>
-      <c r="P62" s="15">
+      <c r="R62" s="14">
         <f>100/R39*F17</f>
         <v>21.91735317565772</v>
       </c>
-      <c r="Q62" s="15">
+      <c r="S62" s="14">
         <f>100/S39*G17</f>
         <v>22.271405084102696</v>
       </c>
-      <c r="R62" s="15">
+      <c r="T62" s="14">
         <f>100/T39*H17</f>
         <v>23.071707068994744</v>
       </c>
-      <c r="S62" s="15">
+      <c r="U62" s="14">
         <f>100/U39*I17</f>
         <v>23.109482269137459</v>
       </c>
-      <c r="T62" s="15">
+      <c r="V62" s="14">
         <f>100/V39*J17</f>
         <v>23.836985774702036</v>
       </c>
-      <c r="U62" s="15">
+      <c r="W62" s="14">
         <f>100/W39*K17</f>
         <v>24.480503753935576</v>
       </c>
-      <c r="X62" s="20">
-        <f t="shared" si="13"/>
-        <v>22.626713305425191</v>
-      </c>
-      <c r="Y62">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="63" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K63" s="1" t="s">
+      <c r="X62" s="19"/>
+    </row>
+    <row r="63" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N63" s="15">
+      <c r="P63" s="14">
         <f>100/P40*D18</f>
         <v>8.3520000000000003</v>
       </c>
-      <c r="O63" s="15">
+      <c r="Q63" s="14">
         <f>100/Q40*E18</f>
         <v>8.744318567261379</v>
       </c>
-      <c r="P63" s="15">
+      <c r="R63" s="14">
         <f>100/R40*F18</f>
         <v>9.0220568695190018</v>
       </c>
-      <c r="Q63" s="15">
+      <c r="S63" s="14">
         <f>100/S40*G18</f>
         <v>8.9667383331225494</v>
       </c>
-      <c r="R63" s="15">
+      <c r="T63" s="14">
         <f>100/T40*H18</f>
         <v>9.7530654913262129</v>
       </c>
-      <c r="S63" s="15">
+      <c r="U63" s="14">
         <f>100/U40*I18</f>
         <v>9.6371238321375099</v>
       </c>
-      <c r="T63" s="15">
+      <c r="V63" s="14">
         <f>100/V40*J18</f>
         <v>10.255670895809304</v>
       </c>
-      <c r="U63" s="15">
+      <c r="W63" s="14">
         <f>100/W40*K18</f>
         <v>9.9685153790263978</v>
       </c>
-      <c r="X63" s="20">
-        <f t="shared" si="13"/>
-        <v>9.3374361710252956</v>
-      </c>
-      <c r="Y63">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="11:27" x14ac:dyDescent="0.25">
-      <c r="K64" s="1" t="s">
+      <c r="X63" s="19"/>
+    </row>
+    <row r="64" spans="13:25" x14ac:dyDescent="0.45">
+      <c r="M64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N64" s="15">
+      <c r="P64" s="14">
         <f>100/P41*D19</f>
         <v>5.8319999999999999</v>
       </c>
-      <c r="O64" s="15">
+      <c r="Q64" s="14">
         <f>100/Q41*E19</f>
         <v>5.7458788413269115</v>
       </c>
-      <c r="P64" s="15">
+      <c r="R64" s="14">
         <f>100/R41*F19</f>
         <v>5.7866064310390648</v>
       </c>
-      <c r="Q64" s="15">
+      <c r="S64" s="14">
         <f>100/S41*G19</f>
         <v>5.8618945238396361</v>
       </c>
-      <c r="R64" s="15">
+      <c r="T64" s="14">
         <f>100/T41*H19</f>
         <v>6.0292704978244895</v>
       </c>
-      <c r="S64" s="15">
+      <c r="U64" s="14">
         <f>100/U41*I19</f>
         <v>5.7605946420275638</v>
       </c>
-      <c r="T64" s="15">
+      <c r="V64" s="14">
         <f>100/V41*J19</f>
         <v>5.6324490580545943</v>
       </c>
-      <c r="U64" s="15">
+      <c r="W64" s="14">
         <f>100/W41*K19</f>
         <v>5.8755146524582216</v>
       </c>
-      <c r="X64" s="20">
-        <f t="shared" si="13"/>
-        <v>5.8155260808213107</v>
-      </c>
-      <c r="Y64">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="65" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="K65" s="1" t="s">
+      <c r="X64" s="19"/>
+    </row>
+    <row r="65" spans="13:24" x14ac:dyDescent="0.45">
+      <c r="M65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N65" s="15">
+      <c r="P65" s="14">
         <f>100/P42*D20</f>
         <v>1.76</v>
       </c>
-      <c r="O65" s="15">
+      <c r="Q65" s="14">
         <f>100/Q42*E20</f>
         <v>1.6620310698053049</v>
       </c>
-      <c r="P65" s="15">
+      <c r="R65" s="14">
         <f>100/R42*F20</f>
         <v>1.9200106298166357</v>
       </c>
-      <c r="Q65" s="15">
+      <c r="S65" s="14">
         <f>100/S42*G20</f>
         <v>1.5808777033008727</v>
       </c>
-      <c r="R65" s="15">
+      <c r="T65" s="14">
         <f>100/T42*H20</f>
         <v>1.5821890715940554</v>
       </c>
-      <c r="S65" s="15">
+      <c r="U65" s="14">
         <f>100/U42*I20</f>
         <v>1.5433851236256644</v>
       </c>
-      <c r="T65" s="15">
+      <c r="V65" s="14">
         <f>100/V42*J20</f>
         <v>1.5186466743560167</v>
       </c>
-      <c r="U65" s="15">
+      <c r="W65" s="14">
         <f>100/W42*K20</f>
         <v>1.3998546863647372</v>
       </c>
-      <c r="X65" s="20">
-        <f>SUM(N65:U65)/8</f>
-        <v>1.6208743698579109</v>
-      </c>
-      <c r="Y65">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="66" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="K66" s="1" t="s">
+      <c r="X65" s="19"/>
+    </row>
+    <row r="66" spans="13:24" x14ac:dyDescent="0.45">
+      <c r="M66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N66" s="15">
+      <c r="P66" s="14">
         <f>100/P43*D21</f>
         <v>2.448</v>
       </c>
-      <c r="O66" s="15">
+      <c r="Q66" s="14">
         <f>100/Q43*E21</f>
         <v>2.3132758971575877</v>
       </c>
-      <c r="P66" s="15">
+      <c r="R66" s="14">
         <f>100/R43*F21</f>
         <v>2.2521923996811055</v>
       </c>
-      <c r="Q66" s="15">
+      <c r="S66" s="14">
         <f>100/S43*G21</f>
         <v>2.2954344251928673</v>
       </c>
-      <c r="R66" s="15">
+      <c r="T66" s="14">
         <f>100/T43*H21</f>
         <v>1.9099282364242527</v>
       </c>
-      <c r="S66" s="15">
+      <c r="U66" s="14">
         <f>100/U43*I21</f>
         <v>1.9511691529448201</v>
       </c>
-      <c r="T66" s="15">
+      <c r="V66" s="14">
         <f>100/V43*J21</f>
         <v>1.8886966551326412</v>
       </c>
-      <c r="U66" s="15">
+      <c r="W66" s="14">
         <f>100/W43*K21</f>
         <v>1.7582949866795834</v>
       </c>
-      <c r="X66" s="20">
-        <f>SUM(N66:U66)/8</f>
-        <v>2.1021239691516072</v>
-      </c>
-      <c r="Y66">
-        <v>2</v>
-      </c>
-      <c r="Z66">
-        <f>SUM(Y61:Y66)</f>
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="69" spans="11:26" x14ac:dyDescent="0.25">
-      <c r="N69" s="16"/>
+      <c r="X66" s="19"/>
+    </row>
+    <row r="67" spans="13:24" x14ac:dyDescent="0.45">
+      <c r="X67" s="20"/>
+    </row>
+    <row r="69" spans="13:24" x14ac:dyDescent="0.45">
+      <c r="N69" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
